--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Dkk1-Kremen2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Dkk1-Kremen2.xlsx
@@ -528,16 +528,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.03798333333333333</v>
+        <v>0.022418</v>
       </c>
       <c r="H2">
-        <v>0.11395</v>
+        <v>0.06725399999999999</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1727373333333333</v>
+        <v>0.5503976666666667</v>
       </c>
       <c r="N2">
-        <v>0.518212</v>
+        <v>1.651193</v>
       </c>
       <c r="O2">
-        <v>0.3196032127335063</v>
+        <v>0.8380541753160734</v>
       </c>
       <c r="P2">
-        <v>0.3196032127335063</v>
+        <v>0.8380541753160734</v>
       </c>
       <c r="Q2">
-        <v>0.006561139711111111</v>
+        <v>0.01233881489133333</v>
       </c>
       <c r="R2">
-        <v>0.0590502574</v>
+        <v>0.111049334022</v>
       </c>
       <c r="S2">
-        <v>0.3196032127335063</v>
+        <v>0.8380541753160734</v>
       </c>
       <c r="T2">
-        <v>0.3196032127335063</v>
+        <v>0.8380541753160734</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +590,16 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.03798333333333333</v>
+        <v>0.022418</v>
       </c>
       <c r="H3">
-        <v>0.11395</v>
+        <v>0.06725399999999999</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>0.297871</v>
       </c>
       <c r="O3">
-        <v>0.1837096180330487</v>
+        <v>0.1511828328097164</v>
       </c>
       <c r="P3">
-        <v>0.1837096180330487</v>
+        <v>0.1511828328097164</v>
       </c>
       <c r="Q3">
-        <v>0.003771377827777778</v>
+        <v>0.002225890692666666</v>
       </c>
       <c r="R3">
-        <v>0.03394240045</v>
+        <v>0.020033016234</v>
       </c>
       <c r="S3">
-        <v>0.1837096180330487</v>
+        <v>0.1511828328097164</v>
       </c>
       <c r="T3">
-        <v>0.1837096180330487</v>
+        <v>0.1511828328097164</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,16 +652,16 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.03798333333333333</v>
+        <v>0.022418</v>
       </c>
       <c r="H4">
-        <v>0.11395</v>
+        <v>0.06725399999999999</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -670,34 +670,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.2684466666666667</v>
+        <v>0.007068666666666667</v>
       </c>
       <c r="N4">
-        <v>0.8053399999999999</v>
+        <v>0.021206</v>
       </c>
       <c r="O4">
-        <v>0.496687169233445</v>
+        <v>0.01076299187421013</v>
       </c>
       <c r="P4">
-        <v>0.4966871692334449</v>
+        <v>0.01076299187421013</v>
       </c>
       <c r="Q4">
-        <v>0.01019649922222222</v>
+        <v>0.0001584653693333333</v>
       </c>
       <c r="R4">
-        <v>0.09176849299999999</v>
+        <v>0.001426188324</v>
       </c>
       <c r="S4">
-        <v>0.496687169233445</v>
+        <v>0.01076299187421013</v>
       </c>
       <c r="T4">
-        <v>0.4966871692334449</v>
+        <v>0.01076299187421013</v>
       </c>
     </row>
   </sheetData>
